--- a/ppt/perf.xlsx
+++ b/ppt/perf.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ylu/nprr/ppt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ylu/Dropbox (Personal)/Course/6.830/project/nprr/ppt/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>facebook</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Native</t>
   </si>
 </sst>
 </file>
@@ -114,7 +117,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -147,7 +150,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -185,42 +188,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent1">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -233,17 +207,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -254,7 +228,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -268,14 +242,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -340,42 +313,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:gradFill rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="103000"/>
-                    <a:lumMod val="102000"/>
-                    <a:tint val="94000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:schemeClr val="accent2">
-                    <a:satMod val="110000"/>
-                    <a:lumMod val="100000"/>
-                    <a:shade val="100000"/>
-                  </a:schemeClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="99000"/>
-                    <a:satMod val="120000"/>
-                    <a:shade val="78000"/>
-                  </a:schemeClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="5400000" scaled="0"/>
-            </a:gradFill>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
@@ -388,17 +332,17 @@
               <a:effectLst/>
             </c:spPr>
             <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
               </a:bodyPr>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -409,7 +353,7 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="inEnd"/>
+            <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -423,14 +367,13 @@
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                    <a:ln w="9525">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="35000"/>
                           <a:lumOff val="65000"/>
                         </a:schemeClr>
                       </a:solidFill>
-                      <a:round/>
                     </a:ln>
                     <a:effectLst/>
                   </c:spPr>
@@ -481,7 +424,7 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="inEnd"/>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
           <c:showCatName val="0"/>
@@ -489,69 +432,18 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="100"/>
-        <c:overlap val="-24"/>
-        <c:axId val="-2126717376"/>
-        <c:axId val="-2096737856"/>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="-2038267680"/>
+        <c:axId val="-2123011680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2126717376"/>
+        <c:axId val="-2038267680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="-2096737856"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2096737856"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -572,8 +464,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -582,7 +480,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -597,7 +495,25 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2126717376"/>
+        <c:crossAx val="-2123011680"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2123011680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2038267680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -610,7 +526,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -647,7 +563,348 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Native Implementation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Native</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="50000"/>
+                        <a:lumOff val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$5:$E$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>facebook</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>gnutella</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>wikivote</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>condmat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$6:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.115566</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.187676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.972001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.01643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="444"/>
+        <c:overlap val="-90"/>
+        <c:axId val="-2126682608"/>
+        <c:axId val="-2036580848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2126682608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2036580848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2036580848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2126682608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -718,8 +975,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="340">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -730,7 +1027,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -743,7 +1040,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -753,18 +1050,18 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="lt1"/>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
@@ -784,11 +1081,14 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -820,35 +1120,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -860,14 +1170,17 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-    <cs:spPr>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -876,15 +1189,15 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -906,15 +1219,13 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -929,139 +1240,135 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -1077,20 +1384,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -1104,7 +1411,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -1121,10 +1428,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -1145,7 +1452,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1154,13 +1461,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDash"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1174,7 +1482,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1190,8 +1498,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -1207,6 +1515,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1214,7 +1533,531 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="202">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+    <cs:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -1224,16 +2067,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>196850</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>641350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1247,6 +2090,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1518,10 +2391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1574,6 +2447,37 @@
         <v>73.051180000000002</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1.1155660000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.18767600000000001</v>
+      </c>
+      <c r="D6">
+        <v>1.9720009999999999</v>
+      </c>
+      <c r="E6">
+        <v>1.0164299999999999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
